--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Angpt2-Tek.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Angpt2-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.76539982035746</v>
+        <v>8.241320666666665</v>
       </c>
       <c r="H2">
-        <v>6.76539982035746</v>
+        <v>24.723962</v>
       </c>
       <c r="I2">
-        <v>0.389415941790814</v>
+        <v>0.4192178407884359</v>
       </c>
       <c r="J2">
-        <v>0.389415941790814</v>
+        <v>0.4192178407884359</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.5761284212632</v>
+        <v>51.378359</v>
       </c>
       <c r="N2">
-        <v>44.5761284212632</v>
+        <v>154.135077</v>
       </c>
       <c r="O2">
-        <v>0.8867442745098747</v>
+        <v>0.8798212945621328</v>
       </c>
       <c r="P2">
-        <v>0.8867442745098747</v>
+        <v>0.879821294562133</v>
       </c>
       <c r="Q2">
-        <v>301.5753312134451</v>
+        <v>423.4255318461192</v>
       </c>
       <c r="R2">
-        <v>301.5753312134451</v>
+        <v>3810.829786615073</v>
       </c>
       <c r="S2">
-        <v>0.345312356785875</v>
+        <v>0.3688367833860238</v>
       </c>
       <c r="T2">
-        <v>0.345312356785875</v>
+        <v>0.3688367833860239</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.76539982035746</v>
+        <v>8.241320666666665</v>
       </c>
       <c r="H3">
-        <v>6.76539982035746</v>
+        <v>24.723962</v>
       </c>
       <c r="I3">
-        <v>0.389415941790814</v>
+        <v>0.4192178407884359</v>
       </c>
       <c r="J3">
-        <v>0.389415941790814</v>
+        <v>0.4192178407884359</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.12635522984081</v>
+        <v>4.208408333333334</v>
       </c>
       <c r="N3">
-        <v>4.12635522984081</v>
+        <v>12.625225</v>
       </c>
       <c r="O3">
-        <v>0.08208478403678125</v>
+        <v>0.07206628121149999</v>
       </c>
       <c r="P3">
-        <v>0.08208478403678125</v>
+        <v>0.07206628121149999</v>
       </c>
       <c r="Q3">
-        <v>27.91644293069608</v>
+        <v>34.68284257127222</v>
       </c>
       <c r="R3">
-        <v>27.91644293069608</v>
+        <v>312.1455831414499</v>
       </c>
       <c r="S3">
-        <v>0.03196512348237875</v>
+        <v>0.03021147080313726</v>
       </c>
       <c r="T3">
-        <v>0.03196512348237875</v>
+        <v>0.03021147080313726</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.76539982035746</v>
+        <v>8.241320666666665</v>
       </c>
       <c r="H4">
-        <v>6.76539982035746</v>
+        <v>24.723962</v>
       </c>
       <c r="I4">
-        <v>0.389415941790814</v>
+        <v>0.4192178407884359</v>
       </c>
       <c r="J4">
-        <v>0.389415941790814</v>
+        <v>0.4192178407884359</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.56694543080522</v>
+        <v>0.2415473333333333</v>
       </c>
       <c r="N4">
-        <v>1.56694543080522</v>
+        <v>0.724642</v>
       </c>
       <c r="O4">
-        <v>0.03117094145334398</v>
+        <v>0.004136342453276182</v>
       </c>
       <c r="P4">
-        <v>0.03117094145334398</v>
+        <v>0.004136342453276182</v>
       </c>
       <c r="Q4">
-        <v>10.60101233607958</v>
+        <v>1.990669030178222</v>
       </c>
       <c r="R4">
-        <v>10.60101233607958</v>
+        <v>17.916021271604</v>
       </c>
       <c r="S4">
-        <v>0.01213846152256027</v>
+        <v>0.001734028552023983</v>
       </c>
       <c r="T4">
-        <v>0.01213846152256027</v>
+        <v>0.001734028552023983</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.8227326306298</v>
+        <v>8.241320666666665</v>
       </c>
       <c r="H5">
-        <v>1.8227326306298</v>
+        <v>24.723962</v>
       </c>
       <c r="I5">
-        <v>0.1049163630882126</v>
+        <v>0.4192178407884359</v>
       </c>
       <c r="J5">
-        <v>0.1049163630882126</v>
+        <v>0.4192178407884359</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>44.5761284212632</v>
+        <v>2.568043</v>
       </c>
       <c r="N5">
-        <v>44.5761284212632</v>
+        <v>7.704129</v>
       </c>
       <c r="O5">
-        <v>0.8867442745098747</v>
+        <v>0.04397608177309095</v>
       </c>
       <c r="P5">
-        <v>0.8867442745098747</v>
+        <v>0.04397608177309095</v>
       </c>
       <c r="Q5">
-        <v>81.25036382058086</v>
+        <v>21.16406584878866</v>
       </c>
       <c r="R5">
-        <v>81.25036382058086</v>
+        <v>190.476592639098</v>
       </c>
       <c r="S5">
-        <v>0.09303398427087169</v>
+        <v>0.01843555804725088</v>
       </c>
       <c r="T5">
-        <v>0.09303398427087169</v>
+        <v>0.01843555804725088</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.8227326306298</v>
+        <v>1.857387</v>
       </c>
       <c r="H6">
-        <v>1.8227326306298</v>
+        <v>5.572160999999999</v>
       </c>
       <c r="I6">
-        <v>0.1049163630882126</v>
+        <v>0.09448118804524665</v>
       </c>
       <c r="J6">
-        <v>0.1049163630882126</v>
+        <v>0.09448118804524663</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.12635522984081</v>
+        <v>51.378359</v>
       </c>
       <c r="N6">
-        <v>4.12635522984081</v>
+        <v>154.135077</v>
       </c>
       <c r="O6">
-        <v>0.08208478403678125</v>
+        <v>0.8798212945621328</v>
       </c>
       <c r="P6">
-        <v>0.08208478403678125</v>
+        <v>0.879821294562133</v>
       </c>
       <c r="Q6">
-        <v>7.521242323000772</v>
+        <v>95.42949608793299</v>
       </c>
       <c r="R6">
-        <v>7.521242323000772</v>
+        <v>858.8654647913969</v>
       </c>
       <c r="S6">
-        <v>0.00861203700602046</v>
+        <v>0.0831265611777372</v>
       </c>
       <c r="T6">
-        <v>0.00861203700602046</v>
+        <v>0.08312656117773722</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.8227326306298</v>
+        <v>1.857387</v>
       </c>
       <c r="H7">
-        <v>1.8227326306298</v>
+        <v>5.572160999999999</v>
       </c>
       <c r="I7">
-        <v>0.1049163630882126</v>
+        <v>0.09448118804524665</v>
       </c>
       <c r="J7">
-        <v>0.1049163630882126</v>
+        <v>0.09448118804524663</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.56694543080522</v>
+        <v>4.208408333333334</v>
       </c>
       <c r="N7">
-        <v>1.56694543080522</v>
+        <v>12.625225</v>
       </c>
       <c r="O7">
-        <v>0.03117094145334398</v>
+        <v>0.07206628121149999</v>
       </c>
       <c r="P7">
-        <v>0.03117094145334398</v>
+        <v>0.07206628121149999</v>
       </c>
       <c r="Q7">
-        <v>2.856122567144944</v>
+        <v>7.816642929025</v>
       </c>
       <c r="R7">
-        <v>2.856122567144944</v>
+        <v>70.349786361225</v>
       </c>
       <c r="S7">
-        <v>0.003270341811320455</v>
+        <v>0.006808907866865357</v>
       </c>
       <c r="T7">
-        <v>0.003270341811320455</v>
+        <v>0.006808907866865355</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.21542797875845</v>
+        <v>1.857387</v>
       </c>
       <c r="H8">
-        <v>1.21542797875845</v>
+        <v>5.572160999999999</v>
       </c>
       <c r="I8">
-        <v>0.06995994968441045</v>
+        <v>0.09448118804524665</v>
       </c>
       <c r="J8">
-        <v>0.06995994968441045</v>
+        <v>0.09448118804524663</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>44.5761284212632</v>
+        <v>0.2415473333333333</v>
       </c>
       <c r="N8">
-        <v>44.5761284212632</v>
+        <v>0.724642</v>
       </c>
       <c r="O8">
-        <v>0.8867442745098747</v>
+        <v>0.004136342453276182</v>
       </c>
       <c r="P8">
-        <v>0.8867442745098747</v>
+        <v>0.004136342453276182</v>
       </c>
       <c r="Q8">
-        <v>54.17907366793303</v>
+        <v>0.448646876818</v>
       </c>
       <c r="R8">
-        <v>54.17907366793303</v>
+        <v>4.037821891361999</v>
       </c>
       <c r="S8">
-        <v>0.06203658482764988</v>
+        <v>0.0003908065491475238</v>
       </c>
       <c r="T8">
-        <v>0.06203658482764988</v>
+        <v>0.0003908065491475237</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.21542797875845</v>
+        <v>1.857387</v>
       </c>
       <c r="H9">
-        <v>1.21542797875845</v>
+        <v>5.572160999999999</v>
       </c>
       <c r="I9">
-        <v>0.06995994968441045</v>
+        <v>0.09448118804524665</v>
       </c>
       <c r="J9">
-        <v>0.06995994968441045</v>
+        <v>0.09448118804524663</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.12635522984081</v>
+        <v>2.568043</v>
       </c>
       <c r="N9">
-        <v>4.12635522984081</v>
+        <v>7.704129</v>
       </c>
       <c r="O9">
-        <v>0.08208478403678125</v>
+        <v>0.04397608177309095</v>
       </c>
       <c r="P9">
-        <v>0.08208478403678125</v>
+        <v>0.04397608177309095</v>
       </c>
       <c r="Q9">
-        <v>5.015287596644775</v>
+        <v>4.769849683641</v>
       </c>
       <c r="R9">
-        <v>5.015287596644775</v>
+        <v>42.928647152769</v>
       </c>
       <c r="S9">
-        <v>0.005742647361068914</v>
+        <v>0.00415491245149655</v>
       </c>
       <c r="T9">
-        <v>0.005742647361068914</v>
+        <v>0.00415491245149655</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.21542797875845</v>
+        <v>1.472213333333333</v>
       </c>
       <c r="H10">
-        <v>1.21542797875845</v>
+        <v>4.41664</v>
       </c>
       <c r="I10">
-        <v>0.06995994968441045</v>
+        <v>0.07488825150029911</v>
       </c>
       <c r="J10">
-        <v>0.06995994968441045</v>
+        <v>0.0748882515002991</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.56694543080522</v>
+        <v>51.378359</v>
       </c>
       <c r="N10">
-        <v>1.56694543080522</v>
+        <v>154.135077</v>
       </c>
       <c r="O10">
-        <v>0.03117094145334398</v>
+        <v>0.8798212945621328</v>
       </c>
       <c r="P10">
-        <v>0.03117094145334398</v>
+        <v>0.879821294562133</v>
       </c>
       <c r="Q10">
-        <v>1.904509317788377</v>
+        <v>75.63990516458666</v>
       </c>
       <c r="R10">
-        <v>1.904509317788377</v>
+        <v>680.75914648128</v>
       </c>
       <c r="S10">
-        <v>0.002180717495691649</v>
+        <v>0.06588827838248774</v>
       </c>
       <c r="T10">
-        <v>0.002180717495691649</v>
+        <v>0.06588827838248774</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.81703001645728</v>
+        <v>1.472213333333333</v>
       </c>
       <c r="H11">
-        <v>1.81703001645728</v>
+        <v>4.41664</v>
       </c>
       <c r="I11">
-        <v>0.1045881210141848</v>
+        <v>0.07488825150029911</v>
       </c>
       <c r="J11">
-        <v>0.1045881210141848</v>
+        <v>0.0748882515002991</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>44.5761284212632</v>
+        <v>4.208408333333334</v>
       </c>
       <c r="N11">
-        <v>44.5761284212632</v>
+        <v>12.625225</v>
       </c>
       <c r="O11">
-        <v>0.8867442745098747</v>
+        <v>0.07206628121149999</v>
       </c>
       <c r="P11">
-        <v>0.8867442745098747</v>
+        <v>0.07206628121149999</v>
       </c>
       <c r="Q11">
-        <v>80.99616335888969</v>
+        <v>6.195674860444445</v>
       </c>
       <c r="R11">
-        <v>80.99616335888969</v>
+        <v>55.761073744</v>
       </c>
       <c r="S11">
-        <v>0.09274291749107427</v>
+        <v>0.005396917792058092</v>
       </c>
       <c r="T11">
-        <v>0.09274291749107427</v>
+        <v>0.005396917792058091</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.81703001645728</v>
+        <v>1.472213333333333</v>
       </c>
       <c r="H12">
-        <v>1.81703001645728</v>
+        <v>4.41664</v>
       </c>
       <c r="I12">
-        <v>0.1045881210141848</v>
+        <v>0.07488825150029911</v>
       </c>
       <c r="J12">
-        <v>0.1045881210141848</v>
+        <v>0.0748882515002991</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>4.12635522984081</v>
+        <v>0.2415473333333333</v>
       </c>
       <c r="N12">
-        <v>4.12635522984081</v>
+        <v>0.724642</v>
       </c>
       <c r="O12">
-        <v>0.08208478403678125</v>
+        <v>0.004136342453276182</v>
       </c>
       <c r="P12">
-        <v>0.08208478403678125</v>
+        <v>0.004136342453276182</v>
       </c>
       <c r="Q12">
-        <v>7.497711311186229</v>
+        <v>0.3556092047644445</v>
       </c>
       <c r="R12">
-        <v>7.497711311186229</v>
+        <v>3.20048284288</v>
       </c>
       <c r="S12">
-        <v>0.008585093326262101</v>
+        <v>0.0003097634539323109</v>
       </c>
       <c r="T12">
-        <v>0.008585093326262101</v>
+        <v>0.0003097634539323109</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.81703001645728</v>
+        <v>1.472213333333333</v>
       </c>
       <c r="H13">
-        <v>1.81703001645728</v>
+        <v>4.41664</v>
       </c>
       <c r="I13">
-        <v>0.1045881210141848</v>
+        <v>0.07488825150029911</v>
       </c>
       <c r="J13">
-        <v>0.1045881210141848</v>
+        <v>0.0748882515002991</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.56694543080522</v>
+        <v>2.568043</v>
       </c>
       <c r="N13">
-        <v>1.56694543080522</v>
+        <v>7.704129</v>
       </c>
       <c r="O13">
-        <v>0.03117094145334398</v>
+        <v>0.04397608177309095</v>
       </c>
       <c r="P13">
-        <v>0.03117094145334398</v>
+        <v>0.04397608177309095</v>
       </c>
       <c r="Q13">
-        <v>2.847186881923669</v>
+        <v>3.780707145173333</v>
       </c>
       <c r="R13">
-        <v>2.847186881923669</v>
+        <v>34.02636430656</v>
       </c>
       <c r="S13">
-        <v>0.00326011019684841</v>
+        <v>0.003293291871820954</v>
       </c>
       <c r="T13">
-        <v>0.00326011019684841</v>
+        <v>0.003293291871820954</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.07730225099014</v>
+        <v>2.161562666666667</v>
       </c>
       <c r="H14">
-        <v>2.07730225099014</v>
+        <v>6.484688</v>
       </c>
       <c r="I14">
-        <v>0.1195693726805879</v>
+        <v>0.1099539346301649</v>
       </c>
       <c r="J14">
-        <v>0.1195693726805879</v>
+        <v>0.1099539346301649</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>44.5761284212632</v>
+        <v>51.378359</v>
       </c>
       <c r="N14">
-        <v>44.5761284212632</v>
+        <v>154.135077</v>
       </c>
       <c r="O14">
-        <v>0.8867442745098747</v>
+        <v>0.8798212945621328</v>
       </c>
       <c r="P14">
-        <v>0.8867442745098747</v>
+        <v>0.879821294562133</v>
       </c>
       <c r="Q14">
-        <v>92.59809190991561</v>
+        <v>111.0575426889973</v>
       </c>
       <c r="R14">
-        <v>92.59809190991561</v>
+        <v>999.517884200976</v>
       </c>
       <c r="S14">
-        <v>0.1060274566312487</v>
+        <v>0.09673981310851182</v>
       </c>
       <c r="T14">
-        <v>0.1060274566312487</v>
+        <v>0.09673981310851185</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,181 +1343,181 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.07730225099014</v>
+        <v>2.161562666666667</v>
       </c>
       <c r="H15">
-        <v>2.07730225099014</v>
+        <v>6.484688</v>
       </c>
       <c r="I15">
-        <v>0.1195693726805879</v>
+        <v>0.1099539346301649</v>
       </c>
       <c r="J15">
-        <v>0.1195693726805879</v>
+        <v>0.1099539346301649</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.12635522984081</v>
+        <v>4.208408333333334</v>
       </c>
       <c r="N15">
-        <v>4.12635522984081</v>
+        <v>12.625225</v>
       </c>
       <c r="O15">
-        <v>0.08208478403678125</v>
+        <v>0.07206628121149999</v>
       </c>
       <c r="P15">
-        <v>0.08208478403678125</v>
+        <v>0.07206628121149999</v>
       </c>
       <c r="Q15">
-        <v>8.571687007333251</v>
+        <v>9.096738339422224</v>
       </c>
       <c r="R15">
-        <v>8.571687007333251</v>
+        <v>81.87064505480001</v>
       </c>
       <c r="S15">
-        <v>0.009814826133899468</v>
+        <v>0.007923971173368353</v>
       </c>
       <c r="T15">
-        <v>0.009814826133899468</v>
+        <v>0.007923971173368353</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.07730225099014</v>
+        <v>2.161562666666667</v>
       </c>
       <c r="H16">
-        <v>2.07730225099014</v>
+        <v>6.484688</v>
       </c>
       <c r="I16">
-        <v>0.1195693726805879</v>
+        <v>0.1099539346301649</v>
       </c>
       <c r="J16">
-        <v>0.1195693726805879</v>
+        <v>0.1099539346301649</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.56694543080522</v>
+        <v>0.2415473333333333</v>
       </c>
       <c r="N16">
-        <v>1.56694543080522</v>
+        <v>0.724642</v>
       </c>
       <c r="O16">
-        <v>0.03117094145334398</v>
+        <v>0.004136342453276182</v>
       </c>
       <c r="P16">
-        <v>0.03117094145334398</v>
+        <v>0.004136342453276182</v>
       </c>
       <c r="Q16">
-        <v>3.255019270590398</v>
+        <v>0.5221196979662223</v>
       </c>
       <c r="R16">
-        <v>3.255019270590398</v>
+        <v>4.699077281696</v>
       </c>
       <c r="S16">
-        <v>0.003727089915439673</v>
+        <v>0.0004548071277155053</v>
       </c>
       <c r="T16">
-        <v>0.003727089915439673</v>
+        <v>0.0004548071277155053</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.6753041710329</v>
+        <v>2.161562666666667</v>
       </c>
       <c r="H17">
-        <v>3.6753041710329</v>
+        <v>6.484688</v>
       </c>
       <c r="I17">
-        <v>0.2115502517417903</v>
+        <v>0.1099539346301649</v>
       </c>
       <c r="J17">
-        <v>0.2115502517417903</v>
+        <v>0.1099539346301649</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>44.5761284212632</v>
+        <v>2.568043</v>
       </c>
       <c r="N17">
-        <v>44.5761284212632</v>
+        <v>7.704129</v>
       </c>
       <c r="O17">
-        <v>0.8867442745098747</v>
+        <v>0.04397608177309095</v>
       </c>
       <c r="P17">
-        <v>0.8867442745098747</v>
+        <v>0.04397608177309095</v>
       </c>
       <c r="Q17">
-        <v>163.8308307151668</v>
+        <v>5.550985875194667</v>
       </c>
       <c r="R17">
-        <v>163.8308307151668</v>
+        <v>49.958872876752</v>
       </c>
       <c r="S17">
-        <v>0.1875909745031552</v>
+        <v>0.004835343220569229</v>
       </c>
       <c r="T17">
-        <v>0.1875909745031552</v>
+        <v>0.00483534322056923</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.6753041710329</v>
+        <v>2.107047</v>
       </c>
       <c r="H18">
-        <v>3.6753041710329</v>
+        <v>6.321141</v>
       </c>
       <c r="I18">
-        <v>0.2115502517417903</v>
+        <v>0.1071808426715449</v>
       </c>
       <c r="J18">
-        <v>0.2115502517417903</v>
+        <v>0.1071808426715449</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.12635522984081</v>
+        <v>51.378359</v>
       </c>
       <c r="N18">
-        <v>4.12635522984081</v>
+        <v>154.135077</v>
       </c>
       <c r="O18">
-        <v>0.08208478403678125</v>
+        <v>0.8798212945621328</v>
       </c>
       <c r="P18">
-        <v>0.08208478403678125</v>
+        <v>0.879821294562133</v>
       </c>
       <c r="Q18">
-        <v>15.16561058739735</v>
+        <v>108.256617195873</v>
       </c>
       <c r="R18">
-        <v>15.16561058739735</v>
+        <v>974.3095547628569</v>
       </c>
       <c r="S18">
-        <v>0.01736505672715157</v>
+        <v>0.09429998775153894</v>
       </c>
       <c r="T18">
-        <v>0.01736505672715157</v>
+        <v>0.09429998775153896</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.107047</v>
+      </c>
+      <c r="H19">
+        <v>6.321141</v>
+      </c>
+      <c r="I19">
+        <v>0.1071808426715449</v>
+      </c>
+      <c r="J19">
+        <v>0.1071808426715449</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.208408333333334</v>
+      </c>
+      <c r="N19">
+        <v>12.625225</v>
+      </c>
+      <c r="O19">
+        <v>0.07206628121149999</v>
+      </c>
+      <c r="P19">
+        <v>0.07206628121149999</v>
+      </c>
+      <c r="Q19">
+        <v>8.867314153525001</v>
+      </c>
+      <c r="R19">
+        <v>79.805827381725</v>
+      </c>
+      <c r="S19">
+        <v>0.007724124748453095</v>
+      </c>
+      <c r="T19">
+        <v>0.007724124748453094</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.107047</v>
+      </c>
+      <c r="H20">
+        <v>6.321141</v>
+      </c>
+      <c r="I20">
+        <v>0.1071808426715449</v>
+      </c>
+      <c r="J20">
+        <v>0.1071808426715449</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.2415473333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.724642</v>
+      </c>
+      <c r="O20">
+        <v>0.004136342453276182</v>
+      </c>
+      <c r="P20">
+        <v>0.004136342453276182</v>
+      </c>
+      <c r="Q20">
+        <v>0.508951584058</v>
+      </c>
+      <c r="R20">
+        <v>4.580564256522</v>
+      </c>
+      <c r="S20">
+        <v>0.0004433366697202266</v>
+      </c>
+      <c r="T20">
+        <v>0.0004433366697202266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.107047</v>
+      </c>
+      <c r="H21">
+        <v>6.321141</v>
+      </c>
+      <c r="I21">
+        <v>0.1071808426715449</v>
+      </c>
+      <c r="J21">
+        <v>0.1071808426715449</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.568043</v>
+      </c>
+      <c r="N21">
+        <v>7.704129</v>
+      </c>
+      <c r="O21">
+        <v>0.04397608177309095</v>
+      </c>
+      <c r="P21">
+        <v>0.04397608177309095</v>
+      </c>
+      <c r="Q21">
+        <v>5.410987299021</v>
+      </c>
+      <c r="R21">
+        <v>48.698885691189</v>
+      </c>
+      <c r="S21">
+        <v>0.004713393501832655</v>
+      </c>
+      <c r="T21">
+        <v>0.004713393501832655</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>3.6753041710329</v>
-      </c>
-      <c r="H19">
-        <v>3.6753041710329</v>
-      </c>
-      <c r="I19">
-        <v>0.2115502517417903</v>
-      </c>
-      <c r="J19">
-        <v>0.2115502517417903</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.56694543080522</v>
-      </c>
-      <c r="N19">
-        <v>1.56694543080522</v>
-      </c>
-      <c r="O19">
-        <v>0.03117094145334398</v>
-      </c>
-      <c r="P19">
-        <v>0.03117094145334398</v>
-      </c>
-      <c r="Q19">
-        <v>5.759001077619369</v>
-      </c>
-      <c r="R19">
-        <v>5.759001077619369</v>
-      </c>
-      <c r="S19">
-        <v>0.006594220511483528</v>
-      </c>
-      <c r="T19">
-        <v>0.006594220511483528</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.819271666666667</v>
+      </c>
+      <c r="H22">
+        <v>11.457815</v>
+      </c>
+      <c r="I22">
+        <v>0.1942779423643085</v>
+      </c>
+      <c r="J22">
+        <v>0.1942779423643085</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>51.378359</v>
+      </c>
+      <c r="N22">
+        <v>154.135077</v>
+      </c>
+      <c r="O22">
+        <v>0.8798212945621328</v>
+      </c>
+      <c r="P22">
+        <v>0.879821294562133</v>
+      </c>
+      <c r="Q22">
+        <v>196.2279108085283</v>
+      </c>
+      <c r="R22">
+        <v>1766.051197276755</v>
+      </c>
+      <c r="S22">
+        <v>0.1709298707558334</v>
+      </c>
+      <c r="T22">
+        <v>0.1709298707558334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.819271666666667</v>
+      </c>
+      <c r="H23">
+        <v>11.457815</v>
+      </c>
+      <c r="I23">
+        <v>0.1942779423643085</v>
+      </c>
+      <c r="J23">
+        <v>0.1942779423643085</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.208408333333334</v>
+      </c>
+      <c r="N23">
+        <v>12.625225</v>
+      </c>
+      <c r="O23">
+        <v>0.07206628121149999</v>
+      </c>
+      <c r="P23">
+        <v>0.07206628121149999</v>
+      </c>
+      <c r="Q23">
+        <v>16.07305470926389</v>
+      </c>
+      <c r="R23">
+        <v>144.657492383375</v>
+      </c>
+      <c r="S23">
+        <v>0.01400088882761785</v>
+      </c>
+      <c r="T23">
+        <v>0.01400088882761785</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.819271666666667</v>
+      </c>
+      <c r="H24">
+        <v>11.457815</v>
+      </c>
+      <c r="I24">
+        <v>0.1942779423643085</v>
+      </c>
+      <c r="J24">
+        <v>0.1942779423643085</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.2415473333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.724642</v>
+      </c>
+      <c r="O24">
+        <v>0.004136342453276182</v>
+      </c>
+      <c r="P24">
+        <v>0.004136342453276182</v>
+      </c>
+      <c r="Q24">
+        <v>0.9225348863588889</v>
+      </c>
+      <c r="R24">
+        <v>8.30281397723</v>
+      </c>
+      <c r="S24">
+        <v>0.0008036001007366326</v>
+      </c>
+      <c r="T24">
+        <v>0.0008036001007366325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.819271666666667</v>
+      </c>
+      <c r="H25">
+        <v>11.457815</v>
+      </c>
+      <c r="I25">
+        <v>0.1942779423643085</v>
+      </c>
+      <c r="J25">
+        <v>0.1942779423643085</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.568043</v>
+      </c>
+      <c r="N25">
+        <v>7.704129</v>
+      </c>
+      <c r="O25">
+        <v>0.04397608177309095</v>
+      </c>
+      <c r="P25">
+        <v>0.04397608177309095</v>
+      </c>
+      <c r="Q25">
+        <v>9.808053868681666</v>
+      </c>
+      <c r="R25">
+        <v>88.272484818135</v>
+      </c>
+      <c r="S25">
+        <v>0.008543582680120681</v>
+      </c>
+      <c r="T25">
+        <v>0.008543582680120681</v>
       </c>
     </row>
   </sheetData>
